--- a/docs/フルスタックエンジニアの成熟度モデル.xlsx
+++ b/docs/フルスタックエンジニアの成熟度モデル.xlsx
@@ -786,16 +786,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="26"/>
   </si>
@@ -949,6 +939,16 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルスタックエンジニアの成熟度モデル©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="12" eb="14">
+      <t>セイジュク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3511,6 +3511,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3528,9 +3531,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7808,7 +7808,7 @@
   </sheetPr>
   <dimension ref="A1:AI513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
@@ -8724,7 +8724,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -8984,9 +8984,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="R32" s="16"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -9193,13 +9191,13 @@
     <row r="38" spans="1:35" ht="13.5" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="5"/>
@@ -9214,7 +9212,7 @@
       <c r="S38" s="25"/>
       <c r="U38" s="25"/>
       <c r="V38" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
@@ -9232,7 +9230,9 @@
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -9796,7 +9796,7 @@
     <row r="3" spans="1:9" ht="24.75">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9809,7 +9809,7 @@
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="2"/>
@@ -9823,7 +9823,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9835,7 +9835,7 @@
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="2"/>
@@ -9848,7 +9848,7 @@
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -10043,7 +10043,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -10063,7 +10063,7 @@
       <c r="V19" s="30"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y19" s="30"/>
       <c r="Z19" s="30"/>
@@ -10093,7 +10093,7 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -10193,7 +10193,7 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -11428,89 +11428,89 @@
       <c r="BF16" s="38"/>
     </row>
     <row r="17" spans="2:58" ht="61.5" customHeight="1" thickTop="1">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="42" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45" t="s">
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45" t="s">
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45" t="s">
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45" t="s">
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45" t="s">
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45" t="s">
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="45"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="45"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="39"/>
     </row>
     <row r="18" spans="2:58" ht="180.75" customHeight="1">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="47" t="s">
         <v>18</v>
       </c>
@@ -11579,13 +11579,13 @@
       <c r="B19" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="47" t="s">
         <v>16</v>
       </c>
@@ -11651,14 +11651,14 @@
       <c r="BF19" s="50"/>
     </row>
     <row r="20" spans="2:58" ht="180.75" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="47" t="s">
         <v>18</v>
       </c>
@@ -11727,13 +11727,13 @@
       <c r="B21" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="47" t="s">
         <v>16</v>
       </c>
@@ -11799,14 +11799,14 @@
       <c r="BF21" s="50"/>
     </row>
     <row r="22" spans="2:58" ht="180.75" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="51" t="s">
         <v>18</v>
       </c>
@@ -11875,12 +11875,12 @@
       <c r="B23" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="54"/>
       <c r="J23" s="51"/>
       <c r="K23" s="52"/>
@@ -11933,63 +11933,63 @@
       <c r="BF23" s="53"/>
     </row>
     <row r="24" spans="2:58" ht="32.25" customHeight="1">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="54"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="43"/>
-      <c r="AU24" s="43"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="43"/>
-      <c r="AX24" s="43"/>
-      <c r="AY24" s="44"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="43"/>
-      <c r="BB24" s="43"/>
-      <c r="BC24" s="43"/>
-      <c r="BD24" s="43"/>
-      <c r="BE24" s="43"/>
-      <c r="BF24" s="44"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="43"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="45"/>
     </row>
     <row r="25" spans="2:58" ht="13.5" customHeight="1"/>
     <row r="26" spans="2:58" ht="13.5" customHeight="1"/>
